--- a/wqsl.xlsx
+++ b/wqsl.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K136"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
@@ -3164,6 +3164,28 @@
       <c r="D136" t="inlineStr">
         <is>
           <t>2023-08-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-08-02</t>
         </is>
       </c>
     </row>

--- a/wqsl.xlsx
+++ b/wqsl.xlsx
@@ -3201,7 +3201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2634"/>
+  <dimension ref="A1:D2654"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A832" workbookViewId="0">
       <selection activeCell="F843" sqref="F843"/>
@@ -48122,6 +48122,346 @@
       <c r="C2634" t="inlineStr">
         <is>
           <t>2023-08-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2635">
+      <c r="A2635" t="inlineStr">
+        <is>
+          <t>lf</t>
+        </is>
+      </c>
+      <c r="B2635" t="inlineStr">
+        <is>
+          <t>61204</t>
+        </is>
+      </c>
+      <c r="C2635" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2636">
+      <c r="A2636" t="inlineStr">
+        <is>
+          <t>yanjiao</t>
+        </is>
+      </c>
+      <c r="B2636" t="inlineStr">
+        <is>
+          <t>26831</t>
+        </is>
+      </c>
+      <c r="C2636" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2637">
+      <c r="A2637" t="inlineStr">
+        <is>
+          <t>beijing</t>
+        </is>
+      </c>
+      <c r="B2637" t="inlineStr">
+        <is>
+          <t>123764</t>
+        </is>
+      </c>
+      <c r="C2637" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2638">
+      <c r="A2638" t="inlineStr">
+        <is>
+          <t>dongcheng</t>
+        </is>
+      </c>
+      <c r="B2638" t="inlineStr">
+        <is>
+          <t>4702</t>
+        </is>
+      </c>
+      <c r="C2638" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2639">
+      <c r="A2639" t="inlineStr">
+        <is>
+          <t>xicheng</t>
+        </is>
+      </c>
+      <c r="B2639" t="inlineStr">
+        <is>
+          <t>6105</t>
+        </is>
+      </c>
+      <c r="C2639" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2640">
+      <c r="A2640" t="inlineStr">
+        <is>
+          <t>chaoyang</t>
+        </is>
+      </c>
+      <c r="B2640" t="inlineStr">
+        <is>
+          <t>30678</t>
+        </is>
+      </c>
+      <c r="C2640" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2641">
+      <c r="A2641" t="inlineStr">
+        <is>
+          <t>haidian</t>
+        </is>
+      </c>
+      <c r="B2641" t="inlineStr">
+        <is>
+          <t>12528</t>
+        </is>
+      </c>
+      <c r="C2641" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2642">
+      <c r="A2642" t="inlineStr">
+        <is>
+          <t>fengtai</t>
+        </is>
+      </c>
+      <c r="B2642" t="inlineStr">
+        <is>
+          <t>14776</t>
+        </is>
+      </c>
+      <c r="C2642" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2643">
+      <c r="A2643" t="inlineStr">
+        <is>
+          <t>shijingshan</t>
+        </is>
+      </c>
+      <c r="B2643" t="inlineStr">
+        <is>
+          <t>3304</t>
+        </is>
+      </c>
+      <c r="C2643" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2644">
+      <c r="A2644" t="inlineStr">
+        <is>
+          <t>tongzhou</t>
+        </is>
+      </c>
+      <c r="B2644" t="inlineStr">
+        <is>
+          <t>8623</t>
+        </is>
+      </c>
+      <c r="C2644" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2645">
+      <c r="A2645" t="inlineStr">
+        <is>
+          <t>changping</t>
+        </is>
+      </c>
+      <c r="B2645" t="inlineStr">
+        <is>
+          <t>9800</t>
+        </is>
+      </c>
+      <c r="C2645" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2646">
+      <c r="A2646" t="inlineStr">
+        <is>
+          <t>daxing</t>
+        </is>
+      </c>
+      <c r="B2646" t="inlineStr">
+        <is>
+          <t>10093</t>
+        </is>
+      </c>
+      <c r="C2646" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2647">
+      <c r="A2647" t="inlineStr">
+        <is>
+          <t>yizhuangkaifaqu</t>
+        </is>
+      </c>
+      <c r="B2647" t="inlineStr">
+        <is>
+          <t>1445</t>
+        </is>
+      </c>
+      <c r="C2647" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2648">
+      <c r="A2648" t="inlineStr">
+        <is>
+          <t>shunyi</t>
+        </is>
+      </c>
+      <c r="B2648" t="inlineStr">
+        <is>
+          <t>6550</t>
+        </is>
+      </c>
+      <c r="C2648" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2649">
+      <c r="A2649" t="inlineStr">
+        <is>
+          <t>fangshan</t>
+        </is>
+      </c>
+      <c r="B2649" t="inlineStr">
+        <is>
+          <t>7865</t>
+        </is>
+      </c>
+      <c r="C2649" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2650">
+      <c r="A2650" t="inlineStr">
+        <is>
+          <t>mentougou</t>
+        </is>
+      </c>
+      <c r="B2650" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="C2650" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2651">
+      <c r="A2651" t="inlineStr">
+        <is>
+          <t>pinggu</t>
+        </is>
+      </c>
+      <c r="B2651" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="C2651" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2652">
+      <c r="A2652" t="inlineStr">
+        <is>
+          <t>huairou</t>
+        </is>
+      </c>
+      <c r="B2652" t="inlineStr">
+        <is>
+          <t>1660</t>
+        </is>
+      </c>
+      <c r="C2652" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2653">
+      <c r="A2653" t="inlineStr">
+        <is>
+          <t>miyun</t>
+        </is>
+      </c>
+      <c r="B2653" t="inlineStr">
+        <is>
+          <t>3464</t>
+        </is>
+      </c>
+      <c r="C2653" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2654">
+      <c r="A2654" t="inlineStr">
+        <is>
+          <t>yanqing</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
         </is>
       </c>
     </row>
